--- a/2018主题实践计划&总结/身体指数.xlsx
+++ b/2018主题实践计划&总结/身体指数.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>吸取教训从头开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(预计2018.07.24)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +189,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +260,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +597,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -993,7 +1022,9 @@
       <c r="B14" s="4">
         <v>82</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
       <c r="D14" s="8">
         <v>100</v>
       </c>
@@ -1022,19 +1053,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+    <row r="15" spans="1:13" s="11" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10">
+        <v>94</v>
+      </c>
+      <c r="H15" s="10">
+        <v>54</v>
+      </c>
+      <c r="I15" s="10">
+        <v>54</v>
+      </c>
+      <c r="J15" s="10">
+        <v>36</v>
+      </c>
+      <c r="K15" s="10">
+        <v>36</v>
+      </c>
+      <c r="L15" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1"/>
@@ -1048,7 +1103,6 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1"/>
